--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:26:04+00:00</t>
+    <t>2025-10-28T16:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:05:01+00:00</t>
+    <t>2025-10-28T16:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-reconciliation-statement</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-reconciliation-statement</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:06:33+00:00</t>
+    <t>2025-10-28T16:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>reconciliation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medicationstatement-reconciliation-properties}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medicationstatement-reconciliation-properties}
 </t>
   </si>
   <si>
@@ -822,7 +822,7 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication)
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
     <t>fromMedicationHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-medicationstatement)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-medicationstatement)
 </t>
   </si>
   <si>
@@ -1153,7 +1153,7 @@
     <t>fromCurrentMedication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-current-medication-medicationstatement)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-current-medication-medicationstatement)
 </t>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
     <t>MedicationStatement.dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/FrRangeMedication}
+    <t xml:space="preserve">Range {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/FrRangeMedication}
 </t>
   </si>
   <si>
@@ -1605,7 +1605,7 @@
     <t>MedicationStatement.dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/FrRatioMedication}
+    <t xml:space="preserve">Ratio {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/FrRatioMedication}
 </t>
   </si>
   <si>
@@ -1659,7 +1659,7 @@
     <t>MedicationStatement.dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/FrSimpleQuantityMedication}
+    <t xml:space="preserve">Quantity {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/FrSimpleQuantityMedication}
 </t>
   </si>
   <si>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:48+00:00</t>
+    <t>2025-10-28T16:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:35+00:00</t>
+    <t>2025-10-28T16:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:42:48+00:00</t>
+    <t>2025-10-28T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:58:49+00:00</t>
+    <t>2025-10-28T17:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
